--- a/Program3 Report.xlsx
+++ b/Program3 Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="460" windowWidth="22180" windowHeight="16540" tabRatio="500"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="27280" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Opt</t>
   </si>
@@ -40,12 +40,27 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Page Faults</t>
+  </si>
+  <si>
+    <t>Working Set Clock with variable r and t=50 (page fault)</t>
+  </si>
+  <si>
+    <t>Working Set Clock with variable r and t=50 (writes to disk)</t>
+  </si>
+  <si>
+    <t>Working Set Clock with variable tau and r=100 (page fault)</t>
+  </si>
+  <si>
+    <t>Working Set Clock with variable tau and r=100 (disk writes)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -53,16 +68,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor theme="9" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -70,13 +111,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -187,7 +326,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -200,8 +339,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Page Faults vs Frame Size </a:t>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Page Faults vs Frame Size (r=100) </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -220,7 +359,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -339,6 +478,30 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$4:$C$8</c:f>
@@ -462,6 +625,30 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$4:$D$8</c:f>
@@ -569,6 +756,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -586,12 +774,51 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$4:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>192670.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>124042.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95708.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82640.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72659.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -678,6 +905,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -695,12 +923,51 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$F$4:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>194943.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>122540.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90692.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65430.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45582.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -717,11 +984,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1986536784"/>
-        <c:axId val="-2001709232"/>
+        <c:axId val="-2039760144"/>
+        <c:axId val="-2141798912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1986536784"/>
+        <c:axId val="-2039760144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,7 +1045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2001709232"/>
+        <c:crossAx val="-2141798912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -786,7 +1053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2001709232"/>
+        <c:axId val="-2141798912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -829,7 +1096,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1986536784"/>
+        <c:crossAx val="-2039760144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -931,7 +1198,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -944,8 +1211,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Total Writes to Disk vs Frame Size</a:t>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Total Writes to Disk vs Frame Size (R=100)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -964,7 +1231,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1083,6 +1350,30 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$I$4:$I$8</c:f>
@@ -1206,6 +1497,30 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$J$4:$J$8</c:f>
@@ -1313,6 +1628,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1330,12 +1646,51 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$K$4:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17443.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13366.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8542.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5246.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3224.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1439,6 +1794,30 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$L$4:$L$8</c:f>
@@ -1461,11 +1840,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1980884720"/>
-        <c:axId val="-1987903824"/>
+        <c:axId val="-2039630640"/>
+        <c:axId val="-2039627120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1980884720"/>
+        <c:axId val="-2039630640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,7 +1901,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1987903824"/>
+        <c:crossAx val="-2039627120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1530,7 +1909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1987903824"/>
+        <c:axId val="-2039627120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1573,7 +1952,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1980884720"/>
+        <c:crossAx val="-2039630640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1654,6 +2033,4037 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>NRU: Page faults vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
+              <a:t> refresh rates</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$30:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$31:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>206993.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>185154.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>176209.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>192670.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>254325.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>301533.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>323739.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>16</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$30:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$32:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>183920.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>163429.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136064.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124042.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>143508.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>167196.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>197126.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>32</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$30:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$33:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>167100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146741.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95708.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93448.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98829.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>103206.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>64</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$30:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$34:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>146907.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>129456.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106711.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82640.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62124.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63292.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65778.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2039555200"/>
+        <c:axId val="-2039551792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2039555200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frame size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2039551792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2039551792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Page Faults</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2039555200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>NRU: PAGE FAULTS vs DISK WRITES</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.168679307793398"/>
+          <c:y val="0.261863904465816"/>
+          <c:w val="0.794855054057934"/>
+          <c:h val="0.58748380160967"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$30:$R$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$31:$R$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16464.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16873.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19224.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17443.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15090.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14823.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14876.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>16</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$30:$R$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$32:$R$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10691.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10708.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11443.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13366.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12046.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11137.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10739.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>32</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$30:$R$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$33:$R$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7299.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7306.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7553.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8542.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10413.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9596.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9026.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>64</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$30:$R$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$34:$R$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4884.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4809.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4920.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5246.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6751.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7684.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7333.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2041409776"/>
+        <c:axId val="-2045669088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2041409776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FRAME</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> SIZE</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2045669088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2045669088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Writes to disk</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2041409776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Working Set Clock (t=50, frame=16): page fault vs refresh</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> rate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>WS Clock with Frame Size 16</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$56:$M$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$57:$M$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>125173.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>122946.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121475.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120245.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119568.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118966.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>118601.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>118459.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>117600.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>117168.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>116881.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2106092976"/>
+        <c:axId val="1813450528"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2106092976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Refresh rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1813450528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1813450528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>page</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> faults</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2106092976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Working Set Clock (t=50, frame=16): PAGE FAULTS VS DISK WRITES</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$60:$M$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>14628.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14403.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14241.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14342.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14411.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14426.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14473.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14467.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14590.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14679.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14723.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2011957952"/>
+        <c:axId val="-2078992928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2011957952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2078992928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2078992928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2011957952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Working Set Clock (R=100, frame=16): page fault vs refresh rate </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Page Fault Trends with 16 Frames &amp; R=100</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$84:$M$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$85:$M$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>119344.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119343.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>119234.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119190.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119279.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119295.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>119273.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>119265.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>119272.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>119329.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>119368.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2007948288"/>
+        <c:axId val="1813141088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2007948288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tau</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1813141088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1813141088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Page Fault</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2007948288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Working Set Clock (t=50, frame=16): PAGE FAULTS VS DISK WRITES</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Disk Write Trend with 16 Frames &amp; R=100</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$87:$M$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$88:$M$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15528.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14722.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14374.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14219.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14027.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13972.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13937.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13876.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13837.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13810.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1837841952"/>
+        <c:axId val="1837960496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1837841952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tau</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1837960496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1837960496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Disk</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Writes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1837841952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -1728,6 +6138,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -2770,20 +7420,3123 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1409700</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2806,14 +10559,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2832,11 +10585,191 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1631950</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1498600</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B3:F8" headerRowDxfId="17" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B3:F8" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="B3:F8">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2845,11 +10778,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name=" " totalsRowLabel="Total" dataDxfId="23" totalsRowDxfId="12"/>
-    <tableColumn id="2" name="Opt" dataDxfId="22" totalsRowDxfId="13"/>
-    <tableColumn id="3" name="Clock" dataDxfId="21" totalsRowDxfId="14"/>
-    <tableColumn id="4" name="NRU" dataDxfId="20" totalsRowDxfId="15"/>
-    <tableColumn id="5" name="Working Set Clock" totalsRowFunction="count" dataDxfId="19" totalsRowDxfId="16"/>
+    <tableColumn id="1" name=" " totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="2" name="Opt" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="3" name="Clock" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="4" name="NRU" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="5" name="Working Set Clock" totalsRowFunction="count" dataDxfId="13" totalsRowDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2857,13 +10790,19 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="H3:L8" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="H3:L8"/>
+  <autoFilter ref="H3:L8">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name=" " totalsRowLabel="Total" dataDxfId="8" totalsRowDxfId="9"/>
-    <tableColumn id="2" name="Opt" dataDxfId="6" totalsRowDxfId="7"/>
-    <tableColumn id="3" name="Clock" dataDxfId="0" totalsRowDxfId="5"/>
-    <tableColumn id="4" name="NRU" dataDxfId="3" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Working Set Clock" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="2"/>
+    <tableColumn id="1" name=" " totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" name="Opt" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="3" name="Clock" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="4" name="NRU" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="5" name="Working Set Clock" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3132,21 +11071,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M17"/>
+  <dimension ref="B3:R88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -3178,7 +11118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>8</v>
       </c>
@@ -3188,8 +11128,12 @@
       <c r="D4" s="1">
         <v>181856</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="6">
+        <v>192670</v>
+      </c>
+      <c r="F4" s="1">
+        <v>194943</v>
+      </c>
       <c r="H4" s="1">
         <v>8</v>
       </c>
@@ -3199,10 +11143,12 @@
       <c r="J4" s="1">
         <v>29401</v>
       </c>
-      <c r="K4" s="1"/>
+      <c r="K4" s="6">
+        <v>17443</v>
+      </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>16</v>
       </c>
@@ -3212,8 +11158,12 @@
       <c r="D5" s="1">
         <v>121682</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="8">
+        <v>124042</v>
+      </c>
+      <c r="F5" s="1">
+        <v>122540</v>
+      </c>
       <c r="H5" s="1">
         <v>16</v>
       </c>
@@ -3223,10 +11173,12 @@
       <c r="J5" s="1">
         <v>16376</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="8">
+        <v>13366</v>
+      </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>32</v>
       </c>
@@ -3236,8 +11188,12 @@
       <c r="D6" s="1">
         <v>87686</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="6">
+        <v>95708</v>
+      </c>
+      <c r="F6" s="1">
+        <v>90692</v>
+      </c>
       <c r="H6" s="1">
         <v>32</v>
       </c>
@@ -3247,10 +11203,12 @@
       <c r="J6" s="1">
         <v>12293</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="6">
+        <v>8542</v>
+      </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>64</v>
       </c>
@@ -3260,8 +11218,12 @@
       <c r="D7" s="1">
         <v>61640</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="8">
+        <v>82640</v>
+      </c>
+      <c r="F7" s="1">
+        <v>65430</v>
+      </c>
       <c r="H7" s="1">
         <v>64</v>
       </c>
@@ -3271,10 +11233,12 @@
       <c r="J7" s="1">
         <v>9346</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="8">
+        <v>5246</v>
+      </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>128</v>
       </c>
@@ -3284,6 +11248,12 @@
       <c r="D8" s="1">
         <v>43017</v>
       </c>
+      <c r="E8" s="1">
+        <v>72659</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45582</v>
+      </c>
       <c r="H8" s="1">
         <v>128</v>
       </c>
@@ -3293,44 +11263,621 @@
       <c r="J8" s="1">
         <v>6671</v>
       </c>
+      <c r="K8" s="1">
+        <v>3224</v>
+      </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J12" s="1"/>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I13" s="1"/>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I14" s="1"/>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I15" s="1"/>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I16" s="1"/>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I17" s="1"/>
-      <c r="K17" s="1"/>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="J17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="30" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3">
+        <v>30</v>
+      </c>
+      <c r="F30" s="3">
+        <v>100</v>
+      </c>
+      <c r="G30" s="3">
+        <v>500</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1500</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L30" s="3">
+        <v>5</v>
+      </c>
+      <c r="M30" s="3">
+        <v>10</v>
+      </c>
+      <c r="N30" s="3">
+        <v>30</v>
+      </c>
+      <c r="O30" s="3">
+        <v>100</v>
+      </c>
+      <c r="P30" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="R30" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="5">
+        <v>8</v>
+      </c>
+      <c r="C31" s="6">
+        <v>206993</v>
+      </c>
+      <c r="D31" s="6">
+        <v>185154</v>
+      </c>
+      <c r="E31" s="6">
+        <v>176209</v>
+      </c>
+      <c r="F31" s="6">
+        <v>192670</v>
+      </c>
+      <c r="G31" s="6">
+        <v>254325</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301533</v>
+      </c>
+      <c r="I31" s="7">
+        <v>323739</v>
+      </c>
+      <c r="K31" s="5">
+        <v>8</v>
+      </c>
+      <c r="L31" s="6">
+        <v>16464</v>
+      </c>
+      <c r="M31" s="6">
+        <v>16873</v>
+      </c>
+      <c r="N31" s="6">
+        <v>19224</v>
+      </c>
+      <c r="O31" s="6">
+        <v>17443</v>
+      </c>
+      <c r="P31" s="6">
+        <v>15090</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>14823</v>
+      </c>
+      <c r="R31" s="7">
+        <v>14876</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B32" s="5">
+        <v>16</v>
+      </c>
+      <c r="C32" s="8">
+        <v>183920</v>
+      </c>
+      <c r="D32" s="8">
+        <v>163429</v>
+      </c>
+      <c r="E32" s="8">
+        <v>136064</v>
+      </c>
+      <c r="F32" s="8">
+        <v>124042</v>
+      </c>
+      <c r="G32" s="8">
+        <v>143508</v>
+      </c>
+      <c r="H32" s="9">
+        <v>167196</v>
+      </c>
+      <c r="I32" s="9">
+        <v>197126</v>
+      </c>
+      <c r="K32" s="5">
+        <v>16</v>
+      </c>
+      <c r="L32" s="8">
+        <v>10691</v>
+      </c>
+      <c r="M32" s="8">
+        <v>10708</v>
+      </c>
+      <c r="N32" s="8">
+        <v>11443</v>
+      </c>
+      <c r="O32" s="8">
+        <v>13366</v>
+      </c>
+      <c r="P32" s="8">
+        <v>12046</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>11137</v>
+      </c>
+      <c r="R32" s="9">
+        <v>10739</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B33" s="5">
+        <v>32</v>
+      </c>
+      <c r="C33" s="6">
+        <v>167100</v>
+      </c>
+      <c r="D33" s="6">
+        <v>146741</v>
+      </c>
+      <c r="E33" s="6">
+        <v>121000</v>
+      </c>
+      <c r="F33" s="6">
+        <v>95708</v>
+      </c>
+      <c r="G33" s="6">
+        <v>93448</v>
+      </c>
+      <c r="H33" s="7">
+        <v>98829</v>
+      </c>
+      <c r="I33" s="7">
+        <v>103206</v>
+      </c>
+      <c r="K33" s="5">
+        <v>32</v>
+      </c>
+      <c r="L33" s="6">
+        <v>7299</v>
+      </c>
+      <c r="M33" s="6">
+        <v>7306</v>
+      </c>
+      <c r="N33" s="6">
+        <v>7553</v>
+      </c>
+      <c r="O33" s="6">
+        <v>8542</v>
+      </c>
+      <c r="P33" s="6">
+        <v>10413</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>9596</v>
+      </c>
+      <c r="R33" s="7">
+        <v>9026</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B34" s="5">
+        <v>64</v>
+      </c>
+      <c r="C34" s="8">
+        <v>146907</v>
+      </c>
+      <c r="D34" s="8">
+        <v>129456</v>
+      </c>
+      <c r="E34" s="8">
+        <v>106711</v>
+      </c>
+      <c r="F34" s="8">
+        <v>82640</v>
+      </c>
+      <c r="G34" s="8">
+        <v>62124</v>
+      </c>
+      <c r="H34" s="9">
+        <v>63292</v>
+      </c>
+      <c r="I34" s="9">
+        <v>65778</v>
+      </c>
+      <c r="K34" s="5">
+        <v>64</v>
+      </c>
+      <c r="L34" s="8">
+        <v>4884</v>
+      </c>
+      <c r="M34" s="8">
+        <v>4809</v>
+      </c>
+      <c r="N34" s="8">
+        <v>4920</v>
+      </c>
+      <c r="O34" s="8">
+        <v>5246</v>
+      </c>
+      <c r="P34" s="8">
+        <v>6751</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>7684</v>
+      </c>
+      <c r="R34" s="9">
+        <v>7333</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="3">
+        <v>10</v>
+      </c>
+      <c r="D56" s="3">
+        <v>30</v>
+      </c>
+      <c r="E56" s="3">
+        <v>50</v>
+      </c>
+      <c r="F56" s="3">
+        <v>70</v>
+      </c>
+      <c r="G56" s="3">
+        <v>90</v>
+      </c>
+      <c r="H56" s="3">
+        <v>110</v>
+      </c>
+      <c r="I56" s="3">
+        <v>130</v>
+      </c>
+      <c r="J56" s="3">
+        <v>150</v>
+      </c>
+      <c r="K56" s="3">
+        <v>300</v>
+      </c>
+      <c r="L56" s="3">
+        <v>500</v>
+      </c>
+      <c r="M56" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="6">
+        <v>125173</v>
+      </c>
+      <c r="D57" s="6">
+        <v>122946</v>
+      </c>
+      <c r="E57" s="6">
+        <v>121475</v>
+      </c>
+      <c r="F57" s="6">
+        <v>120245</v>
+      </c>
+      <c r="G57" s="6">
+        <v>119568</v>
+      </c>
+      <c r="H57" s="6">
+        <v>118966</v>
+      </c>
+      <c r="I57" s="6">
+        <v>118601</v>
+      </c>
+      <c r="J57" s="6">
+        <v>118459</v>
+      </c>
+      <c r="K57" s="6">
+        <v>117600</v>
+      </c>
+      <c r="L57" s="6">
+        <v>117168</v>
+      </c>
+      <c r="M57" s="6">
+        <v>116881</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="3">
+        <v>10</v>
+      </c>
+      <c r="D59" s="3">
+        <v>30</v>
+      </c>
+      <c r="E59" s="3">
+        <v>50</v>
+      </c>
+      <c r="F59" s="3">
+        <v>70</v>
+      </c>
+      <c r="G59" s="3">
+        <v>90</v>
+      </c>
+      <c r="H59" s="3">
+        <v>110</v>
+      </c>
+      <c r="I59" s="3">
+        <v>130</v>
+      </c>
+      <c r="J59" s="3">
+        <v>150</v>
+      </c>
+      <c r="K59" s="3">
+        <v>300</v>
+      </c>
+      <c r="L59" s="3">
+        <v>500</v>
+      </c>
+      <c r="M59" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="6">
+        <v>14628</v>
+      </c>
+      <c r="D60" s="6">
+        <v>14403</v>
+      </c>
+      <c r="E60" s="6">
+        <v>14241</v>
+      </c>
+      <c r="F60" s="6">
+        <v>14342</v>
+      </c>
+      <c r="G60" s="6">
+        <v>14411</v>
+      </c>
+      <c r="H60" s="6">
+        <v>14426</v>
+      </c>
+      <c r="I60" s="6">
+        <v>14473</v>
+      </c>
+      <c r="J60" s="6">
+        <v>14467</v>
+      </c>
+      <c r="K60" s="6">
+        <v>14590</v>
+      </c>
+      <c r="L60" s="6">
+        <v>14679</v>
+      </c>
+      <c r="M60" s="6">
+        <v>14723</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="3">
+        <v>10</v>
+      </c>
+      <c r="D84" s="3">
+        <v>30</v>
+      </c>
+      <c r="E84" s="3">
+        <v>50</v>
+      </c>
+      <c r="F84" s="3">
+        <v>70</v>
+      </c>
+      <c r="G84" s="3">
+        <v>90</v>
+      </c>
+      <c r="H84" s="3">
+        <v>110</v>
+      </c>
+      <c r="I84" s="3">
+        <v>130</v>
+      </c>
+      <c r="J84" s="3">
+        <v>150</v>
+      </c>
+      <c r="K84" s="3">
+        <v>200</v>
+      </c>
+      <c r="L84" s="3">
+        <v>250</v>
+      </c>
+      <c r="M84" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="6">
+        <v>119344</v>
+      </c>
+      <c r="D85" s="6">
+        <v>119343</v>
+      </c>
+      <c r="E85" s="6">
+        <v>119234</v>
+      </c>
+      <c r="F85" s="6">
+        <v>119190</v>
+      </c>
+      <c r="G85" s="6">
+        <v>119279</v>
+      </c>
+      <c r="H85" s="6">
+        <v>119295</v>
+      </c>
+      <c r="I85" s="6">
+        <v>119273</v>
+      </c>
+      <c r="J85" s="6">
+        <v>119265</v>
+      </c>
+      <c r="K85" s="6">
+        <v>119272</v>
+      </c>
+      <c r="L85" s="6">
+        <v>119329</v>
+      </c>
+      <c r="M85" s="6">
+        <v>119368</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="3">
+        <v>10</v>
+      </c>
+      <c r="D87" s="3">
+        <v>30</v>
+      </c>
+      <c r="E87" s="3">
+        <v>50</v>
+      </c>
+      <c r="F87" s="3">
+        <v>70</v>
+      </c>
+      <c r="G87" s="3">
+        <v>90</v>
+      </c>
+      <c r="H87" s="3">
+        <v>110</v>
+      </c>
+      <c r="I87" s="3">
+        <v>130</v>
+      </c>
+      <c r="J87" s="3">
+        <v>150</v>
+      </c>
+      <c r="K87" s="3">
+        <v>200</v>
+      </c>
+      <c r="L87" s="3">
+        <v>250</v>
+      </c>
+      <c r="M87" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="6">
+        <v>15528</v>
+      </c>
+      <c r="D88" s="6">
+        <v>14722</v>
+      </c>
+      <c r="E88" s="6">
+        <v>14374</v>
+      </c>
+      <c r="F88" s="6">
+        <v>14219</v>
+      </c>
+      <c r="G88" s="6">
+        <v>14100</v>
+      </c>
+      <c r="H88" s="6">
+        <v>14027</v>
+      </c>
+      <c r="I88" s="6">
+        <v>13972</v>
+      </c>
+      <c r="J88" s="6">
+        <v>13937</v>
+      </c>
+      <c r="K88" s="6">
+        <v>13876</v>
+      </c>
+      <c r="L88" s="6">
+        <v>13837</v>
+      </c>
+      <c r="M88" s="6">
+        <v>13810</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program3 Report.xlsx
+++ b/Program3 Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="160" yWindow="460" windowWidth="27280" windowHeight="16540" tabRatio="500"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="25300" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>Opt</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>NRU</t>
-  </si>
-  <si>
-    <t>Working Set Clock</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -54,6 +51,12 @@
   </si>
   <si>
     <t>Working Set Clock with variable tau and r=100 (disk writes)</t>
+  </si>
+  <si>
+    <t>NRU (r=100)</t>
+  </si>
+  <si>
+    <t>WS Clock (t=70, r=1000000)</t>
   </si>
 </sst>
 </file>
@@ -340,7 +343,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400"/>
-              <a:t>Page Faults vs Frame Size (r=100) </a:t>
+              <a:t>Page Faults vs Frame Size (r=100, Tau=70) </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -684,7 +687,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NRU</c:v>
+                  <c:v>NRU (r=100)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -833,7 +836,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Working Set Clock</c:v>
+                  <c:v>WS Clock (t=70, r=1000000)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -954,19 +957,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>194943.0</c:v>
+                  <c:v>171186.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>122540.0</c:v>
+                  <c:v>116604.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90692.0</c:v>
+                  <c:v>84401.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65430.0</c:v>
+                  <c:v>59089.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45582.0</c:v>
+                  <c:v>40821.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1212,7 +1215,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400"/>
-              <a:t>Total Writes to Disk vs Frame Size (R=100)</a:t>
+              <a:t>Total Writes to Disk vs Frame Size (R=100, tau=70)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1249,7 +1252,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0842144235281848"/>
+          <c:y val="0.286450253197904"/>
+          <c:w val="0.887088004727886"/>
+          <c:h val="0.632353716008547"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1705,7 +1718,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Working Set Clock</c:v>
+                  <c:v>WS Clock (t=70, r=1000000)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1777,6 +1790,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1824,6 +1838,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>23983.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14749.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11737.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8863.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6131.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5059,7 +5088,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5072,14 +5101,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" cap="all" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>Working Set Clock (R=100, frame=16): page fault vs refresh rate </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5097,7 +5121,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5126,7 +5150,7 @@
             <c:v>Page Fault Trends with 16 Frames &amp; R=100</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -5135,8 +5159,79 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$C$84:$M$84</c:f>
@@ -5224,13 +5319,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="-2007948288"/>
         <c:axId val="1813141088"/>
@@ -5242,6 +5339,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -5249,7 +5360,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5282,7 +5393,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5320,7 +5431,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5349,20 +5460,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -5370,7 +5467,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5403,7 +5500,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5425,8 +5522,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -5463,7 +5566,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -5500,7 +5603,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -5552,7 +5655,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5585,7 +5688,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5614,7 +5717,7 @@
             <c:v>Disk Write Trend with 16 Frames &amp; R=100</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -5623,8 +5726,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -5633,6 +5736,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -5655,8 +5759,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -5681,14 +5785,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -5803,6 +5906,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -5810,7 +5927,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5843,7 +5960,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5881,7 +5998,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5910,20 +6027,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -5931,7 +6034,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5945,11 +6048,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Disk</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Writes</a:t>
+                  <a:t>Disk Writes</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5968,7 +6067,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5990,8 +6089,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -6033,7 +6138,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -9505,7 +9610,7 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9516,7 +9621,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -9539,18 +9644,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -9562,7 +9667,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -9570,11 +9675,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -9606,12 +9711,12 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -9621,12 +9726,12 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -9638,13 +9743,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9656,12 +9761,12 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -9671,18 +9776,19 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -9704,15 +9810,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -9727,10 +9831,46 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -9738,67 +9878,128 @@
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -9811,54 +10012,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -9868,8 +10032,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -9879,66 +10043,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -9947,14 +10052,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -9968,7 +10073,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -9984,8 +10089,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -10001,6 +10106,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -10008,20 +10124,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10032,7 +10142,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -10055,18 +10165,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -10078,7 +10188,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -10086,11 +10196,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -10122,35 +10232,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -10162,30 +10282,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -10207,15 +10331,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -10230,10 +10352,46 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -10241,67 +10399,128 @@
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -10314,54 +10533,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -10371,8 +10553,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -10382,66 +10564,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -10450,14 +10573,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -10471,7 +10594,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -10487,8 +10610,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -10504,6 +10627,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -10511,14 +10645,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -10564,9 +10692,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10617,13 +10745,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
@@ -10781,8 +10909,8 @@
     <tableColumn id="1" name=" " totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="20"/>
     <tableColumn id="2" name="Opt" dataDxfId="19" totalsRowDxfId="18"/>
     <tableColumn id="3" name="Clock" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="4" name="NRU" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="5" name="Working Set Clock" totalsRowFunction="count" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="4" name="NRU (r=100)" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="5" name="WS Clock (t=70, r=1000000)" totalsRowFunction="count" dataDxfId="13" totalsRowDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10802,7 +10930,7 @@
     <tableColumn id="2" name="Opt" dataDxfId="7" totalsRowDxfId="6"/>
     <tableColumn id="3" name="Clock" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="4" name="NRU" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="5" name="Working Set Clock" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="5" name="WS Clock (t=70, r=1000000)" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11073,22 +11201,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" customWidth="1"/>
     <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -11097,13 +11227,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
         <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>0</v>
@@ -11115,7 +11245,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
@@ -11132,7 +11262,7 @@
         <v>192670</v>
       </c>
       <c r="F4" s="1">
-        <v>194943</v>
+        <v>171186</v>
       </c>
       <c r="H4" s="1">
         <v>8</v>
@@ -11146,7 +11276,9 @@
       <c r="K4" s="6">
         <v>17443</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="L4" s="1">
+        <v>23983</v>
+      </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
@@ -11162,7 +11294,7 @@
         <v>124042</v>
       </c>
       <c r="F5" s="1">
-        <v>122540</v>
+        <v>116604</v>
       </c>
       <c r="H5" s="1">
         <v>16</v>
@@ -11176,7 +11308,9 @@
       <c r="K5" s="8">
         <v>13366</v>
       </c>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1">
+        <v>14749</v>
+      </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
@@ -11192,7 +11326,7 @@
         <v>95708</v>
       </c>
       <c r="F6" s="1">
-        <v>90692</v>
+        <v>84401</v>
       </c>
       <c r="H6" s="1">
         <v>32</v>
@@ -11206,7 +11340,9 @@
       <c r="K6" s="6">
         <v>8542</v>
       </c>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1">
+        <v>11737</v>
+      </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
@@ -11222,7 +11358,7 @@
         <v>82640</v>
       </c>
       <c r="F7" s="1">
-        <v>65430</v>
+        <v>59089</v>
       </c>
       <c r="H7" s="1">
         <v>64</v>
@@ -11236,7 +11372,9 @@
       <c r="K7" s="8">
         <v>5246</v>
       </c>
-      <c r="L7" s="1"/>
+      <c r="L7" s="1">
+        <v>8863</v>
+      </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
@@ -11252,7 +11390,7 @@
         <v>72659</v>
       </c>
       <c r="F8" s="1">
-        <v>45582</v>
+        <v>40821</v>
       </c>
       <c r="H8" s="1">
         <v>128</v>
@@ -11265,6 +11403,9 @@
       </c>
       <c r="K8" s="1">
         <v>3224</v>
+      </c>
+      <c r="L8" s="1">
+        <v>6131</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
@@ -11307,7 +11448,7 @@
     </row>
     <row r="30" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="3">
         <v>5</v>
@@ -11331,7 +11472,7 @@
         <v>1500</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L30" s="3">
         <v>5</v>
@@ -11557,12 +11698,12 @@
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56" s="3">
         <v>10</v>
@@ -11600,7 +11741,7 @@
     </row>
     <row r="57" spans="2:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B57" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57" s="6">
         <v>125173</v>
@@ -11638,12 +11779,12 @@
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59" s="3">
         <v>10</v>
@@ -11681,7 +11822,7 @@
     </row>
     <row r="60" spans="2:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B60" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" s="6">
         <v>14628</v>
@@ -11719,12 +11860,12 @@
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C84" s="3">
         <v>10</v>
@@ -11762,7 +11903,7 @@
     </row>
     <row r="85" spans="2:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B85" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C85" s="6">
         <v>119344</v>
@@ -11800,12 +11941,12 @@
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C87" s="3">
         <v>10</v>
@@ -11843,7 +11984,7 @@
     </row>
     <row r="88" spans="2:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B88" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C88" s="6">
         <v>15528</v>
